--- a/web/pns/PNS_Daily_Template_20190514_V_4_.xlsx
+++ b/web/pns/PNS_Daily_Template_20190514_V_4_.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Cohorts\web\pns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4B781C2-2F0F-4ED3-BC42-599FA4F3BE11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="nd+wG5WmoXHlPB2qPUhqicrnVlfAZlMZvhzuh414fPJaUB1sNM3ltxY56sPEQQ4l+vv9GF/i+PHwP/dW3qzzGA==" workbookSaltValue="lZ0oCjXhczZxW8tnxUVyIg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="696" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="696" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot PNS" sheetId="6" state="hidden" r:id="rId1"/>
@@ -119,9 +118,9 @@
     <definedName name="TurkanaWest">'do not delete1'!$AV$1</definedName>
     <definedName name="TurkanaWestCol">'do not delete1'!$AV$1:$AV$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="89" r:id="rId8"/>
+    <pivotCache cacheId="9" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1202,7 +1201,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
@@ -1363,6 +1362,7 @@
       <sz val="10"/>
       <color indexed="0"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1908,11 +1908,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1940,32 +1966,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2356,7 +2356,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{2E70B931-097B-4B61-842C-0EE9B97B9255}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="41"/>
       <tableStyleElement type="headerRow" dxfId="40"/>
     </tableStyle>
@@ -2381,7 +2381,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Peter Njoka" refreshedDate="43178.468770717591" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="7" xr:uid="{036BB2E0-1155-4AF8-BE07-5596200D2B65}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Peter Njoka" refreshedDate="43178.468770717591" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="7">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:Z10" sheet="site2" r:id="rId2"/>
   </cacheSource>
@@ -2675,7 +2675,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96EA38A6-102C-4C15-9EF3-CA7FFB8BAABD}" name="PivotTable2" cacheId="89" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="26">
     <pivotField showAll="0"/>
@@ -2793,23 +2793,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2845,23 +2828,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3037,7 +3003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8AC2CF-B934-485F-A5B9-D8FF1184595B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:C20"/>
   <sheetViews>
@@ -3143,7 +3109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F600ED5F-48E7-45AA-A5F1-A8EEF2104B25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3273,7 +3239,7 @@
       <c r="V1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="W1" s="80" t="s">
+      <c r="W1" s="63" t="s">
         <v>301</v>
       </c>
       <c r="X1" s="16" t="s">
@@ -3422,7 +3388,7 @@
       <c r="V2" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="W2" s="80" t="s">
+      <c r="W2" s="63" t="s">
         <v>77</v>
       </c>
       <c r="X2" s="16" t="s">
@@ -3562,7 +3528,7 @@
       <c r="V3" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="W3" s="80" t="s">
+      <c r="W3" s="63" t="s">
         <v>299</v>
       </c>
       <c r="X3" s="16" t="s">
@@ -3686,7 +3652,7 @@
       <c r="V4" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="W4" s="80" t="s">
+      <c r="W4" s="63" t="s">
         <v>104</v>
       </c>
       <c r="X4" s="16" t="s">
@@ -3695,7 +3661,7 @@
       <c r="Y4" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="AA4" s="79" t="s">
+      <c r="AA4" s="62" t="s">
         <v>302</v>
       </c>
       <c r="AB4" s="16" t="s">
@@ -3800,7 +3766,7 @@
       <c r="V5" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="W5" s="80" t="s">
+      <c r="W5" s="63" t="s">
         <v>131</v>
       </c>
       <c r="X5" s="16" t="s">
@@ -3893,7 +3859,7 @@
       <c r="V6" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="W6" s="80" t="s">
+      <c r="W6" s="63" t="s">
         <v>300</v>
       </c>
       <c r="X6" s="16" t="s">
@@ -3964,7 +3930,7 @@
       <c r="N7" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="V7" s="79" t="s">
+      <c r="V7" s="62" t="s">
         <v>267</v>
       </c>
       <c r="X7" s="16" t="s">
@@ -4060,7 +4026,7 @@
       <c r="K10" s="19"/>
       <c r="L10" s="18"/>
       <c r="M10" s="19"/>
-      <c r="AB10" s="81" t="s">
+      <c r="AB10" s="64" t="s">
         <v>297</v>
       </c>
       <c r="AE10" s="16" t="s">
@@ -4279,7 +4245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E16023-063D-497D-82FA-0B60CE1DCD18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4290,7 +4256,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4345,64 +4311,64 @@
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="70" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="62" t="s">
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="67"/>
+      <c r="L1" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="78" t="s">
+      <c r="M1" s="67"/>
+      <c r="N1" s="71" t="s">
         <v>275</v>
       </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="62" t="s">
+      <c r="O1" s="71"/>
+      <c r="P1" s="67" t="s">
         <v>276</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62" t="s">
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62" t="s">
+      <c r="S1" s="67"/>
+      <c r="T1" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62" t="s">
+      <c r="U1" s="67"/>
+      <c r="V1" s="67" t="s">
         <v>270</v>
       </c>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62" t="s">
+      <c r="W1" s="67"/>
+      <c r="X1" s="67" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62" t="s">
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62" t="s">
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62" t="s">
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62" t="s">
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62" t="s">
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="63" t="s">
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="65" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4512,7 +4478,7 @@
       <c r="AI2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="63"/>
+      <c r="AJ2" s="65"/>
     </row>
     <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="str">
@@ -5177,12 +5143,12 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="73" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
@@ -5300,10 +5266,10 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
@@ -5421,10 +5387,10 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
@@ -5691,78 +5657,78 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="73" t="s">
+      <c r="I16" s="68" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="73"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="68"/>
+      <c r="AE16" s="68"/>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="68"/>
+      <c r="AH16" s="68"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="68"/>
     </row>
     <row r="17" spans="1:36" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="72" t="s">
         <v>290</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="76" t="s">
+      <c r="D17" s="72"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="69" t="s">
         <v>264</v>
       </c>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="76"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="76"/>
-      <c r="AG17" s="76"/>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="76"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="69"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="69"/>
+      <c r="AJ17" s="69"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
@@ -5837,6 +5803,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="IcWAMdsUlYMmAUIyjTLJOlA6k7vKEGEOgfYVC34k78LcJZSyDDAD0z2OOaySIRsj0/bzMdBVm8Mo3+lq1e5BHA==" saltValue="Tu+/0wtfHVzL5luzA+7+6A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A11:D13"/>
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="AH1:AI1"/>
@@ -5853,67 +5823,63 @@
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A11:D13"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:AJ11">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="MFL Code">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="MFL Code">
       <formula>NOT(ISERROR(SEARCH("MFL Code",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="MFL Code">
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="MFL Code">
       <formula>NOT(ISERROR(SEARCH("MFL Code",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:AJ15 J13:AJ13">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:AI7">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:AJ14">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:AJ14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{1EEDEC64-D9EF-4902-8740-6DA5760B9D44}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>OFFSET(INDIRECT(SUBSTITUTE($B4," ","")),0,0,COUNTA(INDIRECT(SUBSTITUTE($B4," ","")&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{E6646214-1C89-441A-9369-DC69E8FA64FB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
       <formula1>county</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{CC99824B-0744-45CF-BCD4-F950544DD4F5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>OFFSET(INDIRECT(SUBSTITUTE($A4," ","")),0,0,COUNTA(INDIRECT(SUBSTITUTE($A4," ","")&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data Value" error="Enter numeric values between 0 and 1000" sqref="J4:AI10" xr:uid="{D094353E-47C0-4E2D-AA9D-486187616635}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data Value" error="Enter numeric values between 0 and 1000" sqref="J4:AI10">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:H13 B1" xr:uid="{6068FB63-4B72-496D-B379-456F11436676}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:H13 B1">
       <formula1>contactsfrom</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date range/format Error" error="Ensure the date format is yyyy-mm-dd eg 2018-05-14" sqref="D1" xr:uid="{7F377F24-5CDE-4323-A9A1-A2C523FAF80E}">
+    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date range/format Error" error="Ensure the date format is yyyy-mm-dd eg 2018-05-14" sqref="D1">
       <formula1>43374</formula1>
     </dataValidation>
   </dataValidations>
@@ -5923,7 +5889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B204C7-6EA9-4163-9705-8A58AEE9E97A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5989,64 +5955,64 @@
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="70" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="62" t="s">
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="67"/>
+      <c r="L1" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="78" t="s">
+      <c r="M1" s="67"/>
+      <c r="N1" s="71" t="s">
         <v>275</v>
       </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="62" t="s">
+      <c r="O1" s="71"/>
+      <c r="P1" s="67" t="s">
         <v>276</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62" t="s">
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62" t="s">
+      <c r="S1" s="67"/>
+      <c r="T1" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62" t="s">
+      <c r="U1" s="67"/>
+      <c r="V1" s="67" t="s">
         <v>270</v>
       </c>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62" t="s">
+      <c r="W1" s="67"/>
+      <c r="X1" s="67" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62" t="s">
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62" t="s">
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62" t="s">
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62" t="s">
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62" t="s">
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="63" t="s">
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="65" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6156,7 +6122,7 @@
       <c r="AI2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="63"/>
+      <c r="AJ2" s="65"/>
     </row>
     <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="str">
@@ -6821,12 +6787,12 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="73" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
@@ -6944,10 +6910,10 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
@@ -7065,10 +7031,10 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
@@ -7335,78 +7301,78 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="73" t="s">
+      <c r="I16" s="68" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="73"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="68"/>
+      <c r="AE16" s="68"/>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="68"/>
+      <c r="AH16" s="68"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="68"/>
     </row>
     <row r="17" spans="1:36" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="72" t="s">
         <v>290</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="76" t="s">
+      <c r="D17" s="72"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="69" t="s">
         <v>264</v>
       </c>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="76"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="76"/>
-      <c r="AG17" s="76"/>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="76"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="69"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="69"/>
+      <c r="AJ17" s="69"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
@@ -7481,11 +7447,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yt7eXD4jiHTOMUN2BDix72s2W0uOyieoXWEitdY+1L4ZZNe3raSSdIdo4IIvfiHb+LuQcn9ZPbBAvcsbPf6uSA==" saltValue="bVd/JFnwBP+onyLurRyuOQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="A11:D13"/>
     <mergeCell ref="I16:AJ16"/>
@@ -7501,63 +7462,68 @@
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
-    <cfRule type="cellIs" dxfId="39" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:AJ11">
-    <cfRule type="cellIs" dxfId="38" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="MFL Code">
+    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="MFL Code">
       <formula>NOT(ISERROR(SEARCH("MFL Code",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="MFL Code">
+    <cfRule type="containsText" dxfId="28" priority="6" operator="containsText" text="MFL Code">
       <formula>NOT(ISERROR(SEARCH("MFL Code",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:AJ15 J13:AJ13">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:AI7">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:AJ14">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:AJ14">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date range/format Error" error="Ensure the date format is yyyy-mm-dd eg 2018-05-14" sqref="D1" xr:uid="{B4A0240A-F17A-4F7E-8703-2DFDAE2F4735}">
+    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date range/format Error" error="Ensure the date format is yyyy-mm-dd eg 2018-05-14" sqref="D1">
       <formula1>43374</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:H13 B1" xr:uid="{2D1D10BE-2F28-4073-9B1B-F1C46CDB7841}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:H13 B1">
       <formula1>contactsfrom</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data Value" error="Enter numeric values between 0 and 1000" sqref="J4:AI10" xr:uid="{23B53489-5A7D-4055-941D-B6C53839D9CA}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data Value" error="Enter numeric values between 0 and 1000" sqref="J4:AI10">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{9EF270B8-9F16-4699-914B-9EA2E87273A2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>OFFSET(INDIRECT(SUBSTITUTE($A4," ","")),0,0,COUNTA(INDIRECT(SUBSTITUTE($A4," ","")&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{821A4389-BB4D-459B-86E9-7866F953F88A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
       <formula1>county</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{54FB97D5-2BF3-4BD5-974D-702D17CC9F65}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>OFFSET(INDIRECT(SUBSTITUTE($B4," ","")),0,0,COUNTA(INDIRECT(SUBSTITUTE($B4," ","")&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -7567,7 +7533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC59E50D-963B-4A9D-B76B-F9019C8E61B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7633,64 +7599,64 @@
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="70" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="62" t="s">
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="67"/>
+      <c r="L1" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="78" t="s">
+      <c r="M1" s="67"/>
+      <c r="N1" s="71" t="s">
         <v>275</v>
       </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="62" t="s">
+      <c r="O1" s="71"/>
+      <c r="P1" s="67" t="s">
         <v>276</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62" t="s">
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62" t="s">
+      <c r="S1" s="67"/>
+      <c r="T1" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62" t="s">
+      <c r="U1" s="67"/>
+      <c r="V1" s="67" t="s">
         <v>270</v>
       </c>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62" t="s">
+      <c r="W1" s="67"/>
+      <c r="X1" s="67" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62" t="s">
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62" t="s">
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62" t="s">
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62" t="s">
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62" t="s">
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="63" t="s">
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="65" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7800,7 +7766,7 @@
       <c r="AI2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="63"/>
+      <c r="AJ2" s="65"/>
     </row>
     <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="str">
@@ -8465,12 +8431,12 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="73" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
@@ -8588,10 +8554,10 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
@@ -8709,10 +8675,10 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
@@ -8979,78 +8945,78 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="73" t="s">
+      <c r="I16" s="68" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="73"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="68"/>
+      <c r="AE16" s="68"/>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="68"/>
+      <c r="AH16" s="68"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="68"/>
     </row>
     <row r="17" spans="1:36" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="72" t="s">
         <v>290</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="76" t="s">
+      <c r="D17" s="72"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="69" t="s">
         <v>264</v>
       </c>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="76"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="76"/>
-      <c r="AG17" s="76"/>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="76"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="69"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="69"/>
+      <c r="AJ17" s="69"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
@@ -9125,11 +9091,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="XTGd5g+zEdJKyL+Ye2hGiYwgZlXGtOUWjONxwyC4GKjaaMOIsGhFzdulLRfie8XqJ82JShxO5lklxKjuILR4JQ==" saltValue="2g5Yf5+ARkc2KT6iyHgOAw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="A11:D13"/>
     <mergeCell ref="I16:AJ16"/>
@@ -9145,63 +9106,68 @@
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:AJ11">
-    <cfRule type="cellIs" dxfId="30" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="MFL Code">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="MFL Code">
       <formula>NOT(ISERROR(SEARCH("MFL Code",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="6" operator="containsText" text="MFL Code">
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="MFL Code">
       <formula>NOT(ISERROR(SEARCH("MFL Code",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:AJ15 J13:AJ13">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:AI7">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:AJ14">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:AJ14">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{D7316B29-74E4-4936-9D18-3CC5DE7E0F5D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>OFFSET(INDIRECT(SUBSTITUTE($B4," ","")),0,0,COUNTA(INDIRECT(SUBSTITUTE($B4," ","")&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{33743590-236C-4B4C-B825-DC696C43807C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
       <formula1>county</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{47578843-B7B5-453B-A799-4DFD9C9DA019}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>OFFSET(INDIRECT(SUBSTITUTE($A4," ","")),0,0,COUNTA(INDIRECT(SUBSTITUTE($A4," ","")&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data Value" error="Enter numeric values between 0 and 1000" sqref="J4:AI10" xr:uid="{CC4ECB06-1365-4BE4-B490-005E4AE1CFB2}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data Value" error="Enter numeric values between 0 and 1000" sqref="J4:AI10">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:H13 B1" xr:uid="{51350B7A-6B78-49F6-B58E-D6412F52A180}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:H13 B1">
       <formula1>contactsfrom</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date range/format Error" error="Ensure the date format is yyyy-mm-dd eg 2018-05-14" sqref="D1" xr:uid="{552E9236-4330-4E94-A678-0F096B061252}">
+    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date range/format Error" error="Ensure the date format is yyyy-mm-dd eg 2018-05-14" sqref="D1">
       <formula1>43374</formula1>
     </dataValidation>
   </dataValidations>
@@ -9211,7 +9177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C6996E-9569-43A7-9153-35327FC0C522}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9277,64 +9243,64 @@
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="70" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="62" t="s">
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="67"/>
+      <c r="L1" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="78" t="s">
+      <c r="M1" s="67"/>
+      <c r="N1" s="71" t="s">
         <v>275</v>
       </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="62" t="s">
+      <c r="O1" s="71"/>
+      <c r="P1" s="67" t="s">
         <v>276</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62" t="s">
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62" t="s">
+      <c r="S1" s="67"/>
+      <c r="T1" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62" t="s">
+      <c r="U1" s="67"/>
+      <c r="V1" s="67" t="s">
         <v>270</v>
       </c>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62" t="s">
+      <c r="W1" s="67"/>
+      <c r="X1" s="67" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62" t="s">
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62" t="s">
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62" t="s">
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62" t="s">
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62" t="s">
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="63" t="s">
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="65" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9444,7 +9410,7 @@
       <c r="AI2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="63"/>
+      <c r="AJ2" s="65"/>
     </row>
     <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="str">
@@ -10109,12 +10075,12 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="73" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
@@ -10232,10 +10198,10 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
@@ -10353,10 +10319,10 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
@@ -10623,78 +10589,78 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="73" t="s">
+      <c r="I16" s="68" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="73"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="68"/>
+      <c r="AE16" s="68"/>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="68"/>
+      <c r="AH16" s="68"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="68"/>
     </row>
     <row r="17" spans="1:36" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="72" t="s">
         <v>290</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="76" t="s">
+      <c r="D17" s="72"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="69" t="s">
         <v>264</v>
       </c>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="76"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="76"/>
-      <c r="AG17" s="76"/>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="76"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="69"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="69"/>
+      <c r="AJ17" s="69"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
@@ -10769,11 +10735,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="jonEp2DkkuuMdmW/sTp9BwswAkvrVcWYY3TCpgTrRvTtHmFRJdAhUf8JEOjo6GzgXBV38RGRB/V62gSvaoVlMQ==" saltValue="fjObU97vfornIR9DD1pG4g==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="A11:D13"/>
     <mergeCell ref="I16:AJ16"/>
@@ -10789,63 +10750,68 @@
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:AJ11">
-    <cfRule type="cellIs" dxfId="22" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="MFL Code">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="MFL Code">
       <formula>NOT(ISERROR(SEARCH("MFL Code",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="MFL Code">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="MFL Code">
       <formula>NOT(ISERROR(SEARCH("MFL Code",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:AJ15 J13:AJ13">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:AI7">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:AJ14">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:AJ14">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date range/format Error" error="Ensure the date format is yyyy-mm-dd eg 2018-05-14" sqref="D1" xr:uid="{2A964227-0034-40A3-A921-0EBF2FC10AA6}">
+    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date range/format Error" error="Ensure the date format is yyyy-mm-dd eg 2018-05-14" sqref="D1">
       <formula1>43374</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:H13 B1" xr:uid="{570EC320-AC7F-4436-9162-DED25600B5B3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:H13 B1">
       <formula1>contactsfrom</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data Value" error="Enter numeric values between 0 and 1000" sqref="J4:AI10" xr:uid="{09C00065-0FF6-4B70-8E98-A9C459848CA0}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data Value" error="Enter numeric values between 0 and 1000" sqref="J4:AI10">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{9EA6021B-9706-40C4-8EF1-72509392B66F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>OFFSET(INDIRECT(SUBSTITUTE($A4," ","")),0,0,COUNTA(INDIRECT(SUBSTITUTE($A4," ","")&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{111B3983-FD6E-444C-B437-9B5BFCD5B125}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
       <formula1>county</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{3F1B97FB-CB02-45EF-A27F-A448450988A3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>OFFSET(INDIRECT(SUBSTITUTE($B4," ","")),0,0,COUNTA(INDIRECT(SUBSTITUTE($B4," ","")&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -10855,7 +10821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68F0B44-26E0-4971-B2AE-858F702F370F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10921,64 +10887,64 @@
       <c r="D1" s="58"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="70" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="62" t="s">
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="67"/>
+      <c r="L1" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="78" t="s">
+      <c r="M1" s="67"/>
+      <c r="N1" s="71" t="s">
         <v>275</v>
       </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="62" t="s">
+      <c r="O1" s="71"/>
+      <c r="P1" s="67" t="s">
         <v>276</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62" t="s">
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62" t="s">
+      <c r="S1" s="67"/>
+      <c r="T1" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62" t="s">
+      <c r="U1" s="67"/>
+      <c r="V1" s="67" t="s">
         <v>270</v>
       </c>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62" t="s">
+      <c r="W1" s="67"/>
+      <c r="X1" s="67" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62" t="s">
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62" t="s">
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62" t="s">
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62" t="s">
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62" t="s">
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="63" t="s">
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="65" t="s">
         <v>0</v>
       </c>
     </row>
@@ -11088,7 +11054,7 @@
       <c r="AI2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="63"/>
+      <c r="AJ2" s="65"/>
     </row>
     <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="str">
@@ -11753,12 +11719,12 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="73" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
@@ -11876,10 +11842,10 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
@@ -11997,10 +11963,10 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
@@ -12267,78 +12233,78 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="73" t="s">
+      <c r="I16" s="68" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="73"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="68"/>
+      <c r="AE16" s="68"/>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="68"/>
+      <c r="AH16" s="68"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="68"/>
     </row>
     <row r="17" spans="1:36" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="72" t="s">
         <v>290</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="76" t="s">
+      <c r="D17" s="72"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="69" t="s">
         <v>264</v>
       </c>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="76"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="76"/>
-      <c r="AG17" s="76"/>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="76"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="69"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="69"/>
+      <c r="AJ17" s="69"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
@@ -12413,6 +12379,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Q1hfIFbyJu77en5EqM4mRebZ7fk9BZjeGE4gh7amTenNuPTcDbqVdmRp/Dp7yWJRAIelgTsW1qFOZYM2ZRCCbw==" saltValue="pBLmT0d8/UvsELsibA6FnA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="20">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="A11:D13"/>
@@ -12429,67 +12399,63 @@
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:AJ15 J11:AJ13">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:AJ11">
-    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="MFL Code">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="MFL Code">
       <formula>NOT(ISERROR(SEARCH("MFL Code",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="MFL Code">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="MFL Code">
       <formula>NOT(ISERROR(SEARCH("MFL Code",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:AJ15 J13:AJ13">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:AI7">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:AJ14">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:AJ14">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date range/format Error" error="Ensure the date format is yyyy-mm-dd eg 2018-05-14" sqref="D1" xr:uid="{09D76B47-935D-4D8E-9508-183E0B19FB20}">
+    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date range/format Error" error="Ensure the date format is yyyy-mm-dd eg 2018-05-14" sqref="D1">
       <formula1>43374</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:H13 B1" xr:uid="{EB4D96A3-07C0-43EA-AB7F-28DC0EAAF0FA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:H13 B1">
       <formula1>contactsfrom</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data Value" error="Enter numeric values between 0 and 1000" sqref="J4:AI10" xr:uid="{158AB72F-7A9A-467A-BFFA-6E8F7F459D47}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Data Value" error="Enter numeric values between 0 and 1000" sqref="J4:AI10">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{060CC9A7-A2FA-4860-981F-478B40F673C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>OFFSET(INDIRECT(SUBSTITUTE($A4," ","")),0,0,COUNTA(INDIRECT(SUBSTITUTE($A4," ","")&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{544A8E61-FD4E-4DA1-BC55-2D924EE2BF7C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
       <formula1>county</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{976050CC-E078-447B-853A-7548D3D41A40}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>OFFSET(INDIRECT(SUBSTITUTE($B4," ","")),0,0,COUNTA(INDIRECT(SUBSTITUTE($B4," ","")&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>
